--- a/medicine/Sexualité et sexologie/Odaxelagnie/Odaxelagnie.xlsx
+++ b/medicine/Sexualité et sexologie/Odaxelagnie/Odaxelagnie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'odaxelagnie est une pratique durant laquelle un partenaire potentiel mord un autre partenaire durant une relation soit sexuelle, soit sadomasochiste[1],[2]. La morsure peut être plus ou moins intense et provoquer une excitation chez certains individus.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'odaxelagnie est une pratique durant laquelle un partenaire potentiel mord un autre partenaire durant une relation soit sexuelle, soit sadomasochiste,. La morsure peut être plus ou moins intense et provoquer une excitation chez certains individus.
 </t>
         </is>
       </c>
